--- a/media/stock_data.xlsx
+++ b/media/stock_data.xlsx
@@ -743,25 +743,25 @@
         <v>20</v>
       </c>
       <c r="E2" s="3">
-        <v>277.134135272885</v>
+        <v>276.17264143348</v>
       </c>
       <c r="F2" s="3">
-        <v>5542.6827054577</v>
+        <v>5523.4528286696</v>
       </c>
       <c r="G2" s="3">
-        <v>5342.6827054577</v>
+        <v>5323.4528286696</v>
       </c>
       <c r="H2" s="3">
-        <v>2.67</v>
+        <v>1.94</v>
       </c>
       <c r="I2" s="4">
-        <v>0.01285</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="J2" s="3">
-        <v>968113242800</v>
+        <v>964754454400</v>
       </c>
       <c r="K2">
-        <v>17.55</v>
+        <v>17.49</v>
       </c>
       <c r="L2" s="3">
         <v>233.47</v>
@@ -770,7 +770,7 @@
         <v>142</v>
       </c>
       <c r="N2" s="4">
-        <v>0.328326</v>
+        <v>0.324816</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -812,7 +812,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.003659521885841928</v>
+        <v>0.003672262495230828</v>
       </c>
       <c r="AC2" s="7">
         <v>43595</v>
@@ -844,25 +844,25 @@
         <v>30</v>
       </c>
       <c r="E3" s="3">
-        <v>6.225</v>
+        <v>6.21</v>
       </c>
       <c r="F3" s="3">
-        <v>186.75</v>
+        <v>186.3</v>
       </c>
       <c r="G3" s="3">
-        <v>-413.25</v>
+        <v>-413.7</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.185</v>
+        <v>-0.2</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.02886</v>
+        <v>-0.0312</v>
       </c>
       <c r="J3" s="3">
-        <v>6329891250</v>
+        <v>6314638500</v>
       </c>
       <c r="K3">
-        <v>-62.06</v>
+        <v>-61.91</v>
       </c>
       <c r="L3" s="3">
         <v>10.32</v>
@@ -871,7 +871,7 @@
         <v>4.58</v>
       </c>
       <c r="N3" s="4">
-        <v>0.194422</v>
+        <v>0.192082</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -927,13 +927,25 @@
         <v>24</v>
       </c>
       <c r="E4" s="3">
-        <v>77.55172227967999</v>
+        <v>77.45952424028501</v>
       </c>
       <c r="F4" s="3">
-        <v>1861.24133471232</v>
+        <v>1859.02858176684</v>
       </c>
       <c r="G4" s="3">
-        <v>1141.24133471232</v>
+        <v>1139.02858176684</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.14</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.00239</v>
+      </c>
+      <c r="J4" s="3">
+        <v>107586425900</v>
+      </c>
+      <c r="K4">
+        <v>12.48</v>
       </c>
       <c r="L4" s="3">
         <v>62</v>
@@ -941,6 +953,9 @@
       <c r="M4" s="3">
         <v>47.73</v>
       </c>
+      <c r="N4" s="4">
+        <v>0.16972</v>
+      </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
@@ -981,7 +996,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.00959578804347826</v>
+        <v>0.009607209658221387</v>
       </c>
       <c r="AC4" s="7">
         <v>43655</v>
@@ -1194,11 +1209,26 @@
       <c r="G2" s="3">
         <v>523.9615118653651</v>
       </c>
+      <c r="H2" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.00355</v>
+      </c>
+      <c r="J2" s="3">
+        <v>65715543200</v>
+      </c>
+      <c r="K2">
+        <v>10.46</v>
+      </c>
       <c r="L2" s="3">
         <v>60.6</v>
       </c>
       <c r="M2" s="3">
         <v>48.34</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.068971</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1272,25 +1302,25 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>24.248084360885</v>
+        <v>24.221742063915</v>
       </c>
       <c r="F3" s="3">
-        <v>363.721265413275</v>
+        <v>363.326130958725</v>
       </c>
       <c r="G3" s="3">
-        <v>-1286.278734586725</v>
+        <v>-1286.673869041275</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.08</v>
+        <v>-0.1</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.00433</v>
+        <v>-0.00541</v>
       </c>
       <c r="J3" s="3">
-        <v>36238059900</v>
+        <v>36198692100</v>
       </c>
       <c r="K3">
-        <v>8.81</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" s="3">
         <v>18.95</v>
@@ -1299,7 +1329,7 @@
         <v>13.33</v>
       </c>
       <c r="N3" s="4">
-        <v>0.286871</v>
+        <v>0.285791</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -1341,7 +1371,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01010320478001086</v>
+        <v>0.0101141924959217</v>
       </c>
       <c r="AC3" s="7">
         <v>43598</v>
@@ -1373,25 +1403,25 @@
         <v>1000</v>
       </c>
       <c r="E4" s="3">
-        <v>32.519565609465</v>
+        <v>32.45370986704</v>
       </c>
       <c r="F4" s="3">
-        <v>32519.565609465</v>
+        <v>32453.70986704</v>
       </c>
       <c r="G4" s="3">
-        <v>-27480.434390535</v>
+        <v>-27546.29013296</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.01002</v>
+        <v>-0.01203</v>
       </c>
       <c r="J4" s="3">
-        <v>29494427100</v>
+        <v>29434697600</v>
       </c>
       <c r="K4">
-        <v>13.24</v>
+        <v>13.21</v>
       </c>
       <c r="L4" s="3">
         <v>36.8</v>
@@ -1400,7 +1430,7 @@
         <v>21.85</v>
       </c>
       <c r="N4" s="4">
-        <v>-0.001936</v>
+        <v>-0.003946000000000002</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -1442,7 +1472,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.01138112596192791</v>
+        <v>0.01140422077922078</v>
       </c>
       <c r="AC4" s="7">
         <v>43629</v>
@@ -1647,25 +1677,25 @@
         <v>23</v>
       </c>
       <c r="E2" s="3">
-        <v>44.0509061080825</v>
+        <v>43.96529364293</v>
       </c>
       <c r="F2" s="3">
-        <v>1013.170840485898</v>
+        <v>1011.20175378739</v>
       </c>
       <c r="G2" s="3">
-        <v>-596.8291595141025</v>
+        <v>-598.79824621261</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.155</v>
+        <v>-0.22</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.00461</v>
+        <v>-0.00655</v>
       </c>
       <c r="J2" s="3">
-        <v>67682980950</v>
+        <v>67551439800</v>
       </c>
       <c r="K2">
-        <v>21.43</v>
+        <v>21.38</v>
       </c>
       <c r="L2" s="3">
         <v>38.04</v>
@@ -1674,7 +1704,7 @@
         <v>28.82</v>
       </c>
       <c r="N2" s="4">
-        <v>0.05935499999999999</v>
+        <v>0.05741499999999999</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1716,7 +1746,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.0220660786365675</v>
+        <v>0.02210904733373277</v>
       </c>
       <c r="AC2" s="7">
         <v>43599</v>
@@ -1748,13 +1778,25 @@
         <v>20000</v>
       </c>
       <c r="E3" s="3">
-        <v>103.81499235877</v>
+        <v>103.643767428465</v>
       </c>
       <c r="F3" s="3">
-        <v>2076299.8471754</v>
+        <v>2072875.3485693</v>
       </c>
       <c r="G3" s="3">
-        <v>2068299.8471754</v>
+        <v>2064875.3485693</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.00013</v>
+      </c>
+      <c r="J3" s="3">
+        <v>34989508500</v>
+      </c>
+      <c r="K3">
+        <v>9.1</v>
       </c>
       <c r="L3" s="3">
         <v>96.98</v>
@@ -1762,6 +1804,9 @@
       <c r="M3" s="3">
         <v>72.95999999999999</v>
       </c>
+      <c r="N3" s="4">
+        <v>0.044185</v>
+      </c>
       <c r="O3" t="s">
         <v>38</v>
       </c>
@@ -1802,7 +1847,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01353717330626745</v>
+        <v>0.01355953742533994</v>
       </c>
       <c r="AC3" s="7">
         <v>43643</v>
@@ -1834,25 +1879,25 @@
         <v>100</v>
       </c>
       <c r="E4" s="3">
-        <v>11.74866444862</v>
+        <v>11.709151003165</v>
       </c>
       <c r="F4" s="3">
-        <v>1174.866444862</v>
+        <v>1170.9151003165</v>
       </c>
       <c r="G4" s="3">
-        <v>-9125.133555138</v>
+        <v>-9129.084899683499</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.29</v>
+        <v>-0.32</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.03149</v>
+        <v>-0.03474</v>
       </c>
       <c r="J4" s="3">
-        <v>10960896000</v>
+        <v>10924032000</v>
       </c>
       <c r="K4">
-        <v>52.87</v>
+        <v>52.7</v>
       </c>
       <c r="L4" s="3">
         <v>10.64</v>
@@ -1861,7 +1906,7 @@
         <v>6.15</v>
       </c>
       <c r="N4" s="4">
-        <v>0.237105</v>
+        <v>0.233855</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -1903,7 +1948,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.005605381165919283</v>
+        <v>0.00562429696287964</v>
       </c>
       <c r="AC4" s="7">
         <v>43629</v>
@@ -1935,22 +1980,22 @@
         <v>300</v>
       </c>
       <c r="E5" s="3">
-        <v>4.1159839015625</v>
+        <v>4.096227178835</v>
       </c>
       <c r="F5" s="3">
-        <v>1234.79517046875</v>
+        <v>1228.8681536505</v>
       </c>
       <c r="G5" s="3">
-        <v>-28765.20482953125</v>
+        <v>-28771.1318463495</v>
       </c>
       <c r="H5" s="3">
-        <v>0.045</v>
+        <v>0.03</v>
       </c>
       <c r="I5" s="4">
-        <v>0.01461</v>
+        <v>0.00974</v>
       </c>
       <c r="J5" s="3">
-        <v>1709990625</v>
+        <v>1701782670</v>
       </c>
       <c r="K5">
         <v>-1.05</v>
@@ -1962,7 +2007,7 @@
         <v>2.43</v>
       </c>
       <c r="N5" s="4">
-        <v>-0.013781</v>
+        <v>-0.018651</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
@@ -2004,7 +2049,7 @@
         <v>49</v>
       </c>
       <c r="AB5" s="4">
-        <v>0.0032</v>
+        <v>0.003215434083601286</v>
       </c>
       <c r="AC5" s="7">
         <v>43630</v>

--- a/media/stock_data.xlsx
+++ b/media/stock_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
   <si>
     <t>Company Name</t>
   </si>
@@ -201,22 +201,10 @@
     <t>Canadian Imperial Bank of Commerce</t>
   </si>
   <si>
-    <t>Cenovus Energy, Inc.</t>
-  </si>
-  <si>
-    <t>Crescent Point Energy Corp.</t>
-  </si>
-  <si>
     <t>ENB</t>
   </si>
   <si>
     <t>CM</t>
-  </si>
-  <si>
-    <t>CVE</t>
-  </si>
-  <si>
-    <t>CPG</t>
   </si>
   <si>
     <t>Oil &amp; Gas Pipelines</t>
@@ -593,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG4"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -740,28 +728,28 @@
         <v>35</v>
       </c>
       <c r="D2" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3">
-        <v>276.17264143348</v>
+        <v>273.130106133445</v>
       </c>
       <c r="F2" s="3">
-        <v>5523.4528286696</v>
+        <v>1365.650530667225</v>
       </c>
       <c r="G2" s="3">
-        <v>5323.4528286696</v>
+        <v>1115.650530667225</v>
       </c>
       <c r="H2" s="3">
-        <v>1.94</v>
+        <v>-2.31</v>
       </c>
       <c r="I2" s="4">
-        <v>0.009339999999999999</v>
+        <v>-0.01102</v>
       </c>
       <c r="J2" s="3">
-        <v>964754454400</v>
+        <v>954125959600</v>
       </c>
       <c r="K2">
-        <v>17.49</v>
+        <v>17.3</v>
       </c>
       <c r="L2" s="3">
         <v>233.47</v>
@@ -770,16 +758,16 @@
         <v>142</v>
       </c>
       <c r="N2" s="4">
-        <v>0.324816</v>
+        <v>0.3167410000000001</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
       </c>
       <c r="P2" s="3">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="Q2" s="3">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="R2" s="7">
         <v>43038</v>
@@ -812,7 +800,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.003672262495230828</v>
+        <v>0.003713169696677436</v>
       </c>
       <c r="AC2" s="7">
         <v>43595</v>
@@ -841,28 +829,28 @@
         <v>36</v>
       </c>
       <c r="D3" s="2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>6.21</v>
+        <v>6.36</v>
       </c>
       <c r="F3" s="3">
-        <v>186.3</v>
+        <v>63.6</v>
       </c>
       <c r="G3" s="3">
-        <v>-413.7</v>
+        <v>-136.4</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.2</v>
+        <v>0.15</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.0312</v>
+        <v>0.02415</v>
       </c>
       <c r="J3" s="3">
-        <v>6314638500</v>
+        <v>6467166000</v>
       </c>
       <c r="K3">
-        <v>-61.91</v>
+        <v>-63.41</v>
       </c>
       <c r="L3" s="3">
         <v>10.32</v>
@@ -871,7 +859,7 @@
         <v>4.58</v>
       </c>
       <c r="N3" s="4">
-        <v>0.192082</v>
+        <v>0.209265</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -880,7 +868,7 @@
         <v>20</v>
       </c>
       <c r="Q3" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="R3" s="7">
         <v>43403</v>
@@ -924,28 +912,16 @@
         <v>37</v>
       </c>
       <c r="D4" s="2">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>77.45952424028501</v>
+        <v>77.143416676645</v>
       </c>
       <c r="F4" s="3">
-        <v>1859.02858176684</v>
+        <v>1157.151250149675</v>
       </c>
       <c r="G4" s="3">
-        <v>1139.02858176684</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.14</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.00239</v>
-      </c>
-      <c r="J4" s="3">
-        <v>107586425900</v>
-      </c>
-      <c r="K4">
-        <v>12.48</v>
+        <v>-3837.848749850325</v>
       </c>
       <c r="L4" s="3">
         <v>62</v>
@@ -953,17 +929,14 @@
       <c r="M4" s="3">
         <v>47.73</v>
       </c>
-      <c r="N4" s="4">
-        <v>0.16972</v>
-      </c>
       <c r="O4" t="s">
         <v>38</v>
       </c>
       <c r="P4" s="3">
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="3">
-        <v>720</v>
+        <v>4995</v>
       </c>
       <c r="R4" s="7">
         <v>43069</v>
@@ -996,7 +969,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.009607209658221387</v>
+        <v>0.009646576745774285</v>
       </c>
       <c r="AC4" s="7">
         <v>43655</v>
@@ -1014,8 +987,278 @@
         <v>1.3171148485</v>
       </c>
     </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>273.11693498496</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1365.5846749248</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1115.5846749248</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-2.32</v>
+      </c>
+      <c r="I5" s="4">
+        <v>-0.01106</v>
+      </c>
+      <c r="J5" s="3">
+        <v>954079948800</v>
+      </c>
+      <c r="K5">
+        <v>17.29</v>
+      </c>
+      <c r="L5" s="3">
+        <v>233.47</v>
+      </c>
+      <c r="M5" s="3">
+        <v>142</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.316701</v>
+      </c>
+      <c r="O5" t="s">
+        <v>38</v>
+      </c>
+      <c r="P5" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>250</v>
+      </c>
+      <c r="R5" s="7">
+        <v>43038</v>
+      </c>
+      <c r="S5" t="s">
+        <v>39</v>
+      </c>
+      <c r="T5" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" t="s">
+        <v>43</v>
+      </c>
+      <c r="V5" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1.014178433345</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1.97567227275</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0.003713348765432099</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>43595</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>43594</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>43600.875</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1.2847054771</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>1.3171148485</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6.36</v>
+      </c>
+      <c r="F6" s="3">
+        <v>63.6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-136.4</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.02415</v>
+      </c>
+      <c r="J6" s="3">
+        <v>6467166000</v>
+      </c>
+      <c r="K6">
+        <v>-63.41</v>
+      </c>
+      <c r="L6" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="M6" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.209265</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>200</v>
+      </c>
+      <c r="R6" s="7">
+        <v>43403</v>
+      </c>
+      <c r="S6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" t="s">
+        <v>44</v>
+      </c>
+      <c r="V6" t="s">
+        <v>47</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1.313841013</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>1.3171148485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>77.143416676645</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1157.151250149675</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-3837.848749850325</v>
+      </c>
+      <c r="L7" s="3">
+        <v>62</v>
+      </c>
+      <c r="M7" s="3">
+        <v>47.73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="3">
+        <v>333</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>4995</v>
+      </c>
+      <c r="R7" s="7">
+        <v>43069</v>
+      </c>
+      <c r="S7" t="s">
+        <v>39</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V7" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.7441698894024998</v>
+      </c>
+      <c r="X7" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.009646576745774285</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>43655</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>43654</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>43676.875</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1.2884631614</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>1.3171148485</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1027,7 +1270,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1036,7 +1279,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1201,25 +1444,25 @@
         <v>17</v>
       </c>
       <c r="E2" s="3">
-        <v>70.821265403845</v>
+        <v>70.28124831596</v>
       </c>
       <c r="F2" s="3">
-        <v>1203.961511865365</v>
+        <v>1194.78122137132</v>
       </c>
       <c r="G2" s="3">
-        <v>523.9615118653651</v>
+        <v>514.78122137132</v>
       </c>
       <c r="H2" s="3">
-        <v>0.19</v>
+        <v>-0.41</v>
       </c>
       <c r="I2" s="4">
-        <v>0.00355</v>
+        <v>-0.00763</v>
       </c>
       <c r="J2" s="3">
-        <v>65715543200</v>
+        <v>65214457600</v>
       </c>
       <c r="K2">
-        <v>10.46</v>
+        <v>10.38</v>
       </c>
       <c r="L2" s="3">
         <v>60.6</v>
@@ -1228,7 +1471,7 @@
         <v>48.34</v>
       </c>
       <c r="N2" s="4">
-        <v>0.068971</v>
+        <v>0.061569</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1270,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.01234889343500093</v>
+        <v>0.01244377811094453</v>
       </c>
       <c r="AC2" s="7">
         <v>43644</v>
@@ -1302,25 +1545,25 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>24.221742063915</v>
+        <v>23.8331931836075</v>
       </c>
       <c r="F3" s="3">
-        <v>363.326130958725</v>
+        <v>357.4978977541125</v>
       </c>
       <c r="G3" s="3">
-        <v>-1286.673869041275</v>
+        <v>-1292.502102245887</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.1</v>
+        <v>-0.295</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.00541</v>
+        <v>-0.01604</v>
       </c>
       <c r="J3" s="3">
-        <v>36198692100</v>
+        <v>35618017050</v>
       </c>
       <c r="K3">
-        <v>8.800000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="L3" s="3">
         <v>18.95</v>
@@ -1329,7 +1572,7 @@
         <v>13.33</v>
       </c>
       <c r="N3" s="4">
-        <v>0.285791</v>
+        <v>0.268178</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -1371,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.0101141924959217</v>
+        <v>0.01027908261950815</v>
       </c>
       <c r="AC3" s="7">
         <v>43598</v>
@@ -1403,25 +1646,25 @@
         <v>1000</v>
       </c>
       <c r="E4" s="3">
-        <v>32.45370986704</v>
+        <v>24.365</v>
       </c>
       <c r="F4" s="3">
-        <v>32453.70986704</v>
+        <v>24365</v>
       </c>
       <c r="G4" s="3">
-        <v>-27546.29013296</v>
+        <v>-35635</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.3</v>
+        <v>-0.275</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.01203</v>
+        <v>-0.01116</v>
       </c>
       <c r="J4" s="3">
-        <v>29434697600</v>
+        <v>29106185350</v>
       </c>
       <c r="K4">
-        <v>13.21</v>
+        <v>13.06</v>
       </c>
       <c r="L4" s="3">
         <v>36.8</v>
@@ -1430,7 +1673,7 @@
         <v>21.85</v>
       </c>
       <c r="N4" s="4">
-        <v>-0.003946000000000002</v>
+        <v>-0.015202</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -1445,7 +1688,7 @@
         <v>43040</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
         <v>42</v>
@@ -1457,13 +1700,13 @@
         <v>58</v>
       </c>
       <c r="W4" s="3">
-        <v>0.3701092724285</v>
+        <v>0.281</v>
       </c>
       <c r="X4" s="3">
-        <v>0.75</v>
+        <v>0.5694264253828279</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z4" t="s">
         <v>39</v>
@@ -1472,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.01140422077922078</v>
+        <v>0.01153293658937</v>
       </c>
       <c r="AC4" s="7">
         <v>43629</v>
@@ -1491,7 +1734,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1503,7 +1746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1512,7 +1755,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1527,7 +1770,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG5"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1671,31 +1914,31 @@
         <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2">
         <v>23</v>
       </c>
       <c r="E2" s="3">
-        <v>43.96529364293</v>
+        <v>43.9982215141425</v>
       </c>
       <c r="F2" s="3">
-        <v>1011.20175378739</v>
+        <v>1011.959094825277</v>
       </c>
       <c r="G2" s="3">
-        <v>-598.79824621261</v>
+        <v>-598.0409051747225</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.22</v>
+        <v>0.025</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.00655</v>
+        <v>0.00075</v>
       </c>
       <c r="J2" s="3">
-        <v>67551439800</v>
+        <v>67602032550</v>
       </c>
       <c r="K2">
-        <v>21.38</v>
+        <v>21.4</v>
       </c>
       <c r="L2" s="3">
         <v>38.04</v>
@@ -1704,7 +1947,7 @@
         <v>28.82</v>
       </c>
       <c r="N2" s="4">
-        <v>0.05741499999999999</v>
+        <v>0.057748</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1725,10 +1968,10 @@
         <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="W2" s="3">
         <v>0.9720307581929999</v>
@@ -1746,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.02210904733373277</v>
+        <v>0.02209250112258644</v>
       </c>
       <c r="AC2" s="7">
         <v>43599</v>
@@ -1772,31 +2015,31 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2">
         <v>20000</v>
       </c>
       <c r="E3" s="3">
-        <v>103.643767428465</v>
+        <v>102.985210004215</v>
       </c>
       <c r="F3" s="3">
-        <v>2072875.3485693</v>
+        <v>2059704.2000843</v>
       </c>
       <c r="G3" s="3">
-        <v>2064875.3485693</v>
+        <v>2051704.2000843</v>
       </c>
       <c r="H3" s="3">
-        <v>0.01</v>
+        <v>-0.5</v>
       </c>
       <c r="I3" s="4">
-        <v>0.00013</v>
+        <v>-0.00635</v>
       </c>
       <c r="J3" s="3">
-        <v>34989508500</v>
+        <v>34767183500</v>
       </c>
       <c r="K3">
-        <v>9.1</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="L3" s="3">
         <v>96.98</v>
@@ -1805,7 +2048,7 @@
         <v>72.95999999999999</v>
       </c>
       <c r="N3" s="4">
-        <v>0.044185</v>
+        <v>0.037838</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -1847,7 +2090,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01355953742533994</v>
+        <v>0.01364624632305922</v>
       </c>
       <c r="AC3" s="7">
         <v>43643</v>
@@ -1865,210 +2108,8 @@
         <v>1.3171148485</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="3">
-        <v>11.709151003165</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1170.9151003165</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-9129.084899683499</v>
-      </c>
-      <c r="H4" s="3">
-        <v>-0.32</v>
-      </c>
-      <c r="I4" s="4">
-        <v>-0.03474</v>
-      </c>
-      <c r="J4" s="3">
-        <v>10924032000</v>
-      </c>
-      <c r="K4">
-        <v>52.7</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10.64</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6.15</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0.233855</v>
-      </c>
-      <c r="O4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="3">
-        <v>103</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>10300</v>
-      </c>
-      <c r="R4" s="7">
-        <v>43500</v>
-      </c>
-      <c r="S4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" t="s">
-        <v>57</v>
-      </c>
-      <c r="V4" t="s">
-        <v>58</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0.065855742425</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0.00562429696287964</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>43629</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>43628</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>43737.875</v>
-      </c>
-      <c r="AF4" s="5">
-        <v>1.3115771079</v>
-      </c>
-      <c r="AG4" s="5">
-        <v>1.3171148485</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="2">
-        <v>300</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4.096227178835</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1228.8681536505</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-28771.1318463495</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.00974</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1701782670</v>
-      </c>
-      <c r="K5">
-        <v>-1.05</v>
-      </c>
-      <c r="L5" s="3">
-        <v>6.97</v>
-      </c>
-      <c r="M5" s="3">
-        <v>2.43</v>
-      </c>
-      <c r="N5" s="4">
-        <v>-0.018651</v>
-      </c>
-      <c r="O5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P5" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>30000</v>
-      </c>
-      <c r="R5" s="7">
-        <v>43044</v>
-      </c>
-      <c r="S5" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U5" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" t="s">
-        <v>58</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0.013171148485</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0.03</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0.003215434083601286</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>43630</v>
-      </c>
-      <c r="AD5" s="7">
-        <v>43629</v>
-      </c>
-      <c r="AE5" s="7">
-        <v>43738.875</v>
-      </c>
-      <c r="AF5" s="5">
-        <v>1.2721969632</v>
-      </c>
-      <c r="AG5" s="5">
-        <v>1.3171148485</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G4">
+  <conditionalFormatting sqref="G2:G7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2080,7 +2121,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H4">
+  <conditionalFormatting sqref="H2:H7">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2089,7 +2130,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I4">
+  <conditionalFormatting sqref="I2:I7">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>

--- a/media/stock_data.xlsx
+++ b/media/stock_data.xlsx
@@ -731,25 +731,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="3">
-        <v>273.130106133445</v>
+        <v>274.0323298046675</v>
       </c>
       <c r="F2" s="3">
-        <v>1365.650530667225</v>
+        <v>1370.161649023337</v>
       </c>
       <c r="G2" s="3">
-        <v>1115.650530667225</v>
+        <v>1120.161649023337</v>
       </c>
       <c r="H2" s="3">
-        <v>-2.31</v>
+        <v>-1.625</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.01102</v>
+        <v>-0.00775</v>
       </c>
       <c r="J2" s="3">
-        <v>954125959600</v>
+        <v>957277699400</v>
       </c>
       <c r="K2">
-        <v>17.3</v>
+        <v>17.35</v>
       </c>
       <c r="L2" s="3">
         <v>233.47</v>
@@ -758,7 +758,7 @@
         <v>142</v>
       </c>
       <c r="N2" s="4">
-        <v>0.3167410000000001</v>
+        <v>0.320011</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -800,7 +800,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.003713169696677436</v>
+        <v>0.003700944461800966</v>
       </c>
       <c r="AC2" s="7">
         <v>43595</v>
@@ -832,25 +832,25 @@
         <v>10</v>
       </c>
       <c r="E3" s="3">
-        <v>6.36</v>
+        <v>6.355</v>
       </c>
       <c r="F3" s="3">
-        <v>63.6</v>
+        <v>63.55</v>
       </c>
       <c r="G3" s="3">
-        <v>-136.4</v>
+        <v>-136.45</v>
       </c>
       <c r="H3" s="3">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I3" s="4">
-        <v>0.02415</v>
+        <v>0.02335</v>
       </c>
       <c r="J3" s="3">
-        <v>6467166000</v>
+        <v>6462081750</v>
       </c>
       <c r="K3">
-        <v>-63.41</v>
+        <v>-63.36</v>
       </c>
       <c r="L3" s="3">
         <v>10.32</v>
@@ -859,7 +859,7 @@
         <v>4.58</v>
       </c>
       <c r="N3" s="4">
-        <v>0.209265</v>
+        <v>0.208465</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -915,13 +915,13 @@
         <v>15</v>
       </c>
       <c r="E4" s="3">
-        <v>77.143416676645</v>
+        <v>77.07756093422</v>
       </c>
       <c r="F4" s="3">
-        <v>1157.151250149675</v>
+        <v>1156.1634140133</v>
       </c>
       <c r="G4" s="3">
-        <v>-3837.848749850325</v>
+        <v>-3838.8365859867</v>
       </c>
       <c r="L4" s="3">
         <v>62</v>
@@ -969,7 +969,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.009646576745774285</v>
+        <v>0.009654818865345178</v>
       </c>
       <c r="AC4" s="7">
         <v>43655</v>
@@ -1001,25 +1001,25 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>273.11693498496</v>
+        <v>274.0323298046675</v>
       </c>
       <c r="F5" s="3">
-        <v>1365.5846749248</v>
+        <v>1370.161649023337</v>
       </c>
       <c r="G5" s="3">
-        <v>1115.5846749248</v>
+        <v>1120.161649023337</v>
       </c>
       <c r="H5" s="3">
-        <v>-2.32</v>
+        <v>-1.625</v>
       </c>
       <c r="I5" s="4">
-        <v>-0.01106</v>
+        <v>-0.00775</v>
       </c>
       <c r="J5" s="3">
-        <v>954079948800</v>
+        <v>957277699400</v>
       </c>
       <c r="K5">
-        <v>17.29</v>
+        <v>17.35</v>
       </c>
       <c r="L5" s="3">
         <v>233.47</v>
@@ -1028,7 +1028,7 @@
         <v>142</v>
       </c>
       <c r="N5" s="4">
-        <v>0.316701</v>
+        <v>0.320011</v>
       </c>
       <c r="O5" t="s">
         <v>38</v>
@@ -1070,7 +1070,7 @@
         <v>49</v>
       </c>
       <c r="AB5" s="4">
-        <v>0.003713348765432099</v>
+        <v>0.003700944461800966</v>
       </c>
       <c r="AC5" s="7">
         <v>43595</v>
@@ -1102,25 +1102,25 @@
         <v>10</v>
       </c>
       <c r="E6" s="3">
-        <v>6.36</v>
+        <v>6.355</v>
       </c>
       <c r="F6" s="3">
-        <v>63.6</v>
+        <v>63.55</v>
       </c>
       <c r="G6" s="3">
-        <v>-136.4</v>
+        <v>-136.45</v>
       </c>
       <c r="H6" s="3">
-        <v>0.15</v>
+        <v>0.145</v>
       </c>
       <c r="I6" s="4">
-        <v>0.02415</v>
+        <v>0.02335</v>
       </c>
       <c r="J6" s="3">
-        <v>6467166000</v>
+        <v>6462081750</v>
       </c>
       <c r="K6">
-        <v>-63.41</v>
+        <v>-63.36</v>
       </c>
       <c r="L6" s="3">
         <v>10.32</v>
@@ -1129,7 +1129,7 @@
         <v>4.58</v>
       </c>
       <c r="N6" s="4">
-        <v>0.209265</v>
+        <v>0.208465</v>
       </c>
       <c r="O6" t="s">
         <v>38</v>
@@ -1185,13 +1185,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="3">
-        <v>77.143416676645</v>
+        <v>77.07704142292</v>
       </c>
       <c r="F7" s="3">
-        <v>1157.151250149675</v>
+        <v>1156.1556213438</v>
       </c>
       <c r="G7" s="3">
-        <v>-3837.848749850325</v>
+        <v>-3838.8443786562</v>
       </c>
       <c r="L7" s="3">
         <v>62</v>
@@ -1224,7 +1224,7 @@
         <v>48</v>
       </c>
       <c r="W7" s="3">
-        <v>0.7441698894024998</v>
+        <v>0.7441648736149999</v>
       </c>
       <c r="X7" s="3">
         <v>2.15</v>
@@ -1239,7 +1239,7 @@
         <v>49</v>
       </c>
       <c r="AB7" s="4">
-        <v>0.009646576745774285</v>
+        <v>0.00965481886534518</v>
       </c>
       <c r="AC7" s="7">
         <v>43655</v>
@@ -1254,7 +1254,7 @@
         <v>1.2884631614</v>
       </c>
       <c r="AG7" s="5">
-        <v>1.3171148485</v>
+        <v>1.317105971</v>
       </c>
     </row>
   </sheetData>
@@ -1444,25 +1444,25 @@
         <v>17</v>
       </c>
       <c r="E2" s="3">
-        <v>70.28124831596</v>
+        <v>70.426130949295</v>
       </c>
       <c r="F2" s="3">
-        <v>1194.78122137132</v>
+        <v>1197.244226138015</v>
       </c>
       <c r="G2" s="3">
-        <v>514.78122137132</v>
+        <v>517.2442261380149</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.41</v>
+        <v>-0.3</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.00763</v>
+        <v>-0.00558</v>
       </c>
       <c r="J2" s="3">
-        <v>65214457600</v>
+        <v>65348895200</v>
       </c>
       <c r="K2">
-        <v>10.38</v>
+        <v>10.4</v>
       </c>
       <c r="L2" s="3">
         <v>60.6</v>
@@ -1471,7 +1471,7 @@
         <v>48.34</v>
       </c>
       <c r="N2" s="4">
-        <v>0.061569</v>
+        <v>0.06361899999999999</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1513,7 +1513,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.01244377811094453</v>
+        <v>0.01241817841780438</v>
       </c>
       <c r="AC2" s="7">
         <v>43644</v>
@@ -1545,25 +1545,25 @@
         <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>23.8331931836075</v>
+        <v>23.780348306405</v>
       </c>
       <c r="F3" s="3">
-        <v>357.4978977541125</v>
+        <v>356.705224596075</v>
       </c>
       <c r="G3" s="3">
-        <v>-1292.502102245887</v>
+        <v>-1293.294775403925</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.295</v>
+        <v>-0.335</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.01604</v>
+        <v>-0.01822</v>
       </c>
       <c r="J3" s="3">
-        <v>35618017050</v>
+        <v>35539281450</v>
       </c>
       <c r="K3">
-        <v>8.66</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="L3" s="3">
         <v>18.95</v>
@@ -1572,7 +1572,7 @@
         <v>13.33</v>
       </c>
       <c r="N3" s="4">
-        <v>0.268178</v>
+        <v>0.265998</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -1599,7 +1599,7 @@
         <v>48</v>
       </c>
       <c r="W3" s="3">
-        <v>0.244983361821</v>
+        <v>0.244981710606</v>
       </c>
       <c r="X3" s="3">
         <v>0.5</v>
@@ -1614,7 +1614,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01027908261950815</v>
+        <v>0.0103018554417059</v>
       </c>
       <c r="AC3" s="7">
         <v>43598</v>
@@ -1629,7 +1629,7 @@
         <v>1.2892249527</v>
       </c>
       <c r="AG3" s="5">
-        <v>1.3171148485</v>
+        <v>1.317105971</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1646,25 +1646,25 @@
         <v>1000</v>
       </c>
       <c r="E4" s="3">
-        <v>24.365</v>
+        <v>24.46</v>
       </c>
       <c r="F4" s="3">
-        <v>24365</v>
+        <v>24460</v>
       </c>
       <c r="G4" s="3">
-        <v>-35635</v>
+        <v>-35540</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.275</v>
+        <v>-0.18</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.01116</v>
+        <v>-0.00731</v>
       </c>
       <c r="J4" s="3">
-        <v>29106185350</v>
+        <v>29219671400</v>
       </c>
       <c r="K4">
-        <v>13.06</v>
+        <v>13.11</v>
       </c>
       <c r="L4" s="3">
         <v>36.8</v>
@@ -1673,7 +1673,7 @@
         <v>21.85</v>
       </c>
       <c r="N4" s="4">
-        <v>-0.015202</v>
+        <v>-0.011352</v>
       </c>
       <c r="O4" t="s">
         <v>38</v>
@@ -1715,7 +1715,7 @@
         <v>49</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.01153293658937</v>
+        <v>0.01148814390842191</v>
       </c>
       <c r="AC4" s="7">
         <v>43629</v>
@@ -1920,25 +1920,25 @@
         <v>23</v>
       </c>
       <c r="E2" s="3">
-        <v>43.9982215141425</v>
+        <v>44.09700512777999</v>
       </c>
       <c r="F2" s="3">
-        <v>1011.959094825277</v>
+        <v>1014.23111793894</v>
       </c>
       <c r="G2" s="3">
-        <v>-598.0409051747225</v>
+        <v>-595.7688820610601</v>
       </c>
       <c r="H2" s="3">
-        <v>0.025</v>
+        <v>0.1</v>
       </c>
       <c r="I2" s="4">
-        <v>0.00075</v>
+        <v>0.003</v>
       </c>
       <c r="J2" s="3">
-        <v>67602032550</v>
+        <v>67753810800</v>
       </c>
       <c r="K2">
-        <v>21.4</v>
+        <v>21.45</v>
       </c>
       <c r="L2" s="3">
         <v>38.04</v>
@@ -1947,7 +1947,7 @@
         <v>28.82</v>
       </c>
       <c r="N2" s="4">
-        <v>0.057748</v>
+        <v>0.059998</v>
       </c>
       <c r="O2" t="s">
         <v>38</v>
@@ -1989,7 +1989,7 @@
         <v>49</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.02209250112258644</v>
+        <v>0.02204301075268817</v>
       </c>
       <c r="AC2" s="7">
         <v>43599</v>
@@ -2021,25 +2021,25 @@
         <v>20000</v>
       </c>
       <c r="E3" s="3">
-        <v>102.985210004215</v>
+        <v>103.037894598155</v>
       </c>
       <c r="F3" s="3">
-        <v>2059704.2000843</v>
+        <v>2060757.8919631</v>
       </c>
       <c r="G3" s="3">
-        <v>2051704.2000843</v>
+        <v>2052757.8919631</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.5</v>
+        <v>-0.46</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.00635</v>
+        <v>-0.00585</v>
       </c>
       <c r="J3" s="3">
-        <v>34767183500</v>
+        <v>34784969500</v>
       </c>
       <c r="K3">
-        <v>9.039999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="L3" s="3">
         <v>96.98</v>
@@ -2048,7 +2048,7 @@
         <v>72.95999999999999</v>
       </c>
       <c r="N3" s="4">
-        <v>0.037838</v>
+        <v>0.038338</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -2090,7 +2090,7 @@
         <v>49</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01364624632305922</v>
+        <v>0.01363926882270229</v>
       </c>
       <c r="AC3" s="7">
         <v>43643</v>

--- a/media/stock_data.xlsx
+++ b/media/stock_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="65">
   <si>
     <t>Company Name</t>
   </si>
@@ -123,6 +123,21 @@
     <t>The Toronto-Dominion Bank</t>
   </si>
   <si>
+    <t>The Bank of Nova Scotia</t>
+  </si>
+  <si>
+    <t>Manulife Financial Corp.</t>
+  </si>
+  <si>
+    <t>Canadian Natural Resources Ltd.</t>
+  </si>
+  <si>
+    <t>Enbridge, Inc.</t>
+  </si>
+  <si>
+    <t>Canadian Imperial Bank of Commerce</t>
+  </si>
+  <si>
     <t>AAPL</t>
   </si>
   <si>
@@ -132,6 +147,21 @@
     <t>TD</t>
   </si>
   <si>
+    <t>BNS</t>
+  </si>
+  <si>
+    <t>MFC</t>
+  </si>
+  <si>
+    <t>CNQ</t>
+  </si>
+  <si>
+    <t>ENB</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
     <t>cs</t>
   </si>
   <si>
@@ -156,6 +186,15 @@
     <t>Major Banks</t>
   </si>
   <si>
+    <t>Life/Health Insurance</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Production</t>
+  </si>
+  <si>
+    <t>Oil &amp; Gas Pipelines</t>
+  </si>
+  <si>
     <t>Electronic Technology</t>
   </si>
   <si>
@@ -165,52 +204,13 @@
     <t>Finance</t>
   </si>
   <si>
+    <t>Energy Minerals</t>
+  </si>
+  <si>
+    <t>Industrial Services</t>
+  </si>
+  <si>
     <t>Quarterly</t>
-  </si>
-  <si>
-    <t>The Bank of Nova Scotia</t>
-  </si>
-  <si>
-    <t>Manulife Financial Corp.</t>
-  </si>
-  <si>
-    <t>Canadian Natural Resources Ltd.</t>
-  </si>
-  <si>
-    <t>BNS</t>
-  </si>
-  <si>
-    <t>MFC</t>
-  </si>
-  <si>
-    <t>CNQ</t>
-  </si>
-  <si>
-    <t>Life/Health Insurance</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Production</t>
-  </si>
-  <si>
-    <t>Energy Minerals</t>
-  </si>
-  <si>
-    <t>Enbridge, Inc.</t>
-  </si>
-  <si>
-    <t>Canadian Imperial Bank of Commerce</t>
-  </si>
-  <si>
-    <t>ENB</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Oil &amp; Gas Pipelines</t>
-  </si>
-  <si>
-    <t>Industrial Services</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:AG9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -725,31 +725,31 @@
         <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
-        <v>274.0323298046675</v>
+        <v>280.170295031704</v>
       </c>
       <c r="F2" s="3">
-        <v>1370.161649023337</v>
+        <v>2801.70295031704</v>
       </c>
       <c r="G2" s="3">
-        <v>1120.161649023337</v>
+        <v>1301.70295031704</v>
       </c>
       <c r="H2" s="3">
-        <v>-1.625</v>
+        <v>4.3</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.00775</v>
+        <v>0.0206</v>
       </c>
       <c r="J2" s="3">
-        <v>957277699400</v>
+        <v>980398126400</v>
       </c>
       <c r="K2">
-        <v>17.35</v>
+        <v>18.01</v>
       </c>
       <c r="L2" s="3">
         <v>233.47</v>
@@ -758,49 +758,49 @@
         <v>142</v>
       </c>
       <c r="N2" s="4">
-        <v>0.320011</v>
+        <v>0.342662</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P2" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Q2" s="3">
-        <v>250</v>
+        <v>1500</v>
       </c>
       <c r="R2" s="7">
         <v>43038</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="W2" s="3">
-        <v>1.014178433345</v>
+        <v>1.012441933426</v>
       </c>
       <c r="X2" s="3">
-        <v>1.97567227275</v>
+        <v>19.722894807</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.003700944461800966</v>
+        <v>0.003613666228646518</v>
       </c>
       <c r="AC2" s="7">
         <v>43595</v>
@@ -815,7 +815,7 @@
         <v>1.2847054771</v>
       </c>
       <c r="AG2" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -826,31 +826,31 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>700</v>
       </c>
       <c r="E3" s="3">
-        <v>6.355</v>
+        <v>6.265</v>
       </c>
       <c r="F3" s="3">
-        <v>63.55</v>
+        <v>4385.5</v>
       </c>
       <c r="G3" s="3">
-        <v>-136.45</v>
+        <v>2985.5</v>
       </c>
       <c r="H3" s="3">
-        <v>0.145</v>
+        <v>0.015</v>
       </c>
       <c r="I3" s="4">
-        <v>0.02335</v>
+        <v>0.0024</v>
       </c>
       <c r="J3" s="3">
-        <v>6462081750</v>
+        <v>6370565250</v>
       </c>
       <c r="K3">
-        <v>-63.36</v>
+        <v>-62.46</v>
       </c>
       <c r="L3" s="3">
         <v>10.32</v>
@@ -859,31 +859,31 @@
         <v>4.58</v>
       </c>
       <c r="N3" s="4">
-        <v>0.208465</v>
+        <v>0.195148</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="Q3" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="R3" s="7">
         <v>43403</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="V3" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="W3" s="3">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>1.313841013</v>
       </c>
       <c r="AG3" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -909,19 +909,31 @@
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E4" s="3">
-        <v>77.07756093422</v>
+        <v>76.80095237845799</v>
       </c>
       <c r="F4" s="3">
-        <v>1156.1634140133</v>
+        <v>1536.01904756916</v>
       </c>
       <c r="G4" s="3">
-        <v>-3838.8365859867</v>
+        <v>536.0190475691597</v>
+      </c>
+      <c r="H4" s="3">
+        <v>-0.22</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-0.00375</v>
+      </c>
+      <c r="J4" s="3">
+        <v>106854669900</v>
+      </c>
+      <c r="K4">
+        <v>12.39</v>
       </c>
       <c r="L4" s="3">
         <v>62</v>
@@ -929,47 +941,50 @@
       <c r="M4" s="3">
         <v>47.73</v>
       </c>
+      <c r="N4" s="4">
+        <v>0.162784</v>
+      </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3">
-        <v>333</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="3">
-        <v>4995</v>
+        <v>1000</v>
       </c>
       <c r="R4" s="7">
         <v>43069</v>
       </c>
       <c r="S4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W4" s="3">
-        <v>0.7441698894024998</v>
+        <v>0.7428957043969999</v>
       </c>
       <c r="X4" s="3">
-        <v>2.15</v>
+        <v>43</v>
       </c>
       <c r="Y4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.009654818865345178</v>
+        <v>0.009673001198424926</v>
       </c>
       <c r="AC4" s="7">
         <v>43655</v>
@@ -984,7 +999,7 @@
         <v>1.2884631614</v>
       </c>
       <c r="AG4" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -992,100 +1007,100 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D5" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
-        <v>274.0323298046675</v>
+        <v>70.226654109458</v>
       </c>
       <c r="F5" s="3">
-        <v>1370.161649023337</v>
+        <v>1053.39981164187</v>
       </c>
       <c r="G5" s="3">
-        <v>1120.161649023337</v>
+        <v>228.39981164187</v>
       </c>
       <c r="H5" s="3">
-        <v>-1.625</v>
+        <v>-0.17</v>
       </c>
       <c r="I5" s="4">
-        <v>-0.00775</v>
+        <v>-0.00317</v>
       </c>
       <c r="J5" s="3">
-        <v>957277699400</v>
+        <v>65275565600</v>
       </c>
       <c r="K5">
-        <v>17.35</v>
+        <v>10.39</v>
       </c>
       <c r="L5" s="3">
-        <v>233.47</v>
+        <v>60.6</v>
       </c>
       <c r="M5" s="3">
-        <v>142</v>
+        <v>48.34</v>
       </c>
       <c r="N5" s="4">
-        <v>0.320011</v>
+        <v>0.06225100000000001</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P5" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="3">
-        <v>250</v>
+        <v>825</v>
       </c>
       <c r="R5" s="7">
         <v>43038</v>
       </c>
       <c r="S5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T5" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="V5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="W5" s="3">
-        <v>1.014178433345</v>
+        <v>0.8730668101232</v>
       </c>
       <c r="X5" s="3">
-        <v>1.97567227275</v>
+        <v>26.1</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="AA5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB5" s="4">
-        <v>0.003700944461800966</v>
+        <v>0.01243212881482868</v>
       </c>
       <c r="AC5" s="7">
-        <v>43595</v>
+        <v>43644</v>
       </c>
       <c r="AD5" s="7">
-        <v>43594</v>
+        <v>43643</v>
       </c>
       <c r="AE5" s="7">
-        <v>43600.875</v>
+        <v>43674.875</v>
       </c>
       <c r="AF5" s="5">
         <v>1.2847054771</v>
       </c>
       <c r="AG5" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1093,82 +1108,100 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E6" s="3">
-        <v>6.355</v>
+        <v>23.785811137242</v>
       </c>
       <c r="F6" s="3">
-        <v>63.55</v>
+        <v>1427.14866823452</v>
       </c>
       <c r="G6" s="3">
-        <v>-136.45</v>
+        <v>227.1486682345201</v>
       </c>
       <c r="H6" s="3">
-        <v>0.145</v>
+        <v>-0.09</v>
       </c>
       <c r="I6" s="4">
-        <v>0.02335</v>
+        <v>-0.00495</v>
       </c>
       <c r="J6" s="3">
-        <v>6462081750</v>
+        <v>35608175100</v>
       </c>
       <c r="K6">
-        <v>-63.36</v>
+        <v>8.66</v>
       </c>
       <c r="L6" s="3">
-        <v>10.32</v>
+        <v>18.95</v>
       </c>
       <c r="M6" s="3">
-        <v>4.58</v>
+        <v>13.33</v>
       </c>
       <c r="N6" s="4">
-        <v>0.208465</v>
+        <v>0.264603</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P6" s="3">
         <v>20</v>
       </c>
       <c r="Q6" s="3">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="R6" s="7">
-        <v>43403</v>
+        <v>43039</v>
       </c>
       <c r="S6" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U6" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="V6" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="W6" s="3">
-        <v>0</v>
+        <v>0.2445638956068</v>
       </c>
       <c r="X6" s="3">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>64</v>
       </c>
       <c r="AB6" s="4">
-        <v>0</v>
+        <v>0.01028192371475953</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>43598</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>43597</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>43634.875</v>
       </c>
       <c r="AF6" s="5">
-        <v>1.313841013</v>
+        <v>1.2892249527</v>
       </c>
       <c r="AG6" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1176,89 +1209,306 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25.29</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1264.5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>264.5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.19</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.00757</v>
+      </c>
+      <c r="J7" s="3">
+        <v>30211181100</v>
+      </c>
+      <c r="K7">
+        <v>13.56</v>
+      </c>
+      <c r="L7" s="3">
+        <v>36.8</v>
+      </c>
+      <c r="M7" s="3">
+        <v>21.85</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0.022121</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="3">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R7" s="7">
+        <v>43040</v>
+      </c>
+      <c r="S7" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" t="s">
+        <v>52</v>
+      </c>
+      <c r="U7" t="s">
+        <v>57</v>
+      </c>
+      <c r="V7" t="s">
+        <v>62</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.281</v>
+      </c>
+      <c r="X7" s="3">
+        <v>28.52015414087992</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB7" s="4">
+        <v>0.01111111111111111</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>43629</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>43628</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>43646.875</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1.2905614881</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>1.3148596538</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43.903163840382</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1756.12655361528</v>
+      </c>
+      <c r="G8" s="3">
+        <v>156.12655361528</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0018</v>
+      </c>
+      <c r="J8" s="3">
+        <v>67571676900</v>
+      </c>
+      <c r="K8">
+        <v>21.39</v>
+      </c>
+      <c r="L8" s="3">
+        <v>38.04</v>
+      </c>
+      <c r="M8" s="3">
+        <v>28.82</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0.057215</v>
+      </c>
+      <c r="O8" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="3">
+        <v>40</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="R8" s="7">
+        <v>42676</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" t="s">
+        <v>58</v>
+      </c>
+      <c r="V8" t="s">
+        <v>63</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0.9703664245043999</v>
+      </c>
+      <c r="X8" s="3">
+        <v>59.04</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB8" s="4">
+        <v>0.02210242587601078</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>43599</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>43598</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>43616.875</v>
+      </c>
+      <c r="AF8" s="5">
+        <v>1.3375394322</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>1.3148596538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2">
         <v>15</v>
       </c>
-      <c r="E7" s="3">
-        <v>77.07704142292</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1156.1556213438</v>
-      </c>
-      <c r="G7" s="3">
-        <v>-3838.8443786562</v>
-      </c>
-      <c r="L7" s="3">
-        <v>62</v>
-      </c>
-      <c r="M7" s="3">
-        <v>47.73</v>
-      </c>
-      <c r="O7" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="3">
-        <v>333</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>4995</v>
-      </c>
-      <c r="R7" s="7">
-        <v>43069</v>
-      </c>
-      <c r="S7" t="s">
-        <v>39</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="E9" s="3">
+        <v>103.453157560984</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1551.79736341476</v>
+      </c>
+      <c r="G9" s="3">
+        <v>126.79736341476</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.06</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.00076</v>
+      </c>
+      <c r="J9" s="3">
+        <v>34985062000</v>
+      </c>
+      <c r="K9">
+        <v>9.1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>96.98</v>
+      </c>
+      <c r="M9" s="3">
+        <v>72.95999999999999</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.044019</v>
+      </c>
+      <c r="O9" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="3">
+        <v>95</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1425</v>
+      </c>
+      <c r="R9" s="7">
+        <v>41946</v>
+      </c>
+      <c r="S9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T9" t="s">
+        <v>52</v>
+      </c>
+      <c r="U9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1.4029552506046</v>
+      </c>
+      <c r="X9" s="3">
         <v>42</v>
       </c>
-      <c r="U7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" t="s">
-        <v>48</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0.7441648736149999</v>
-      </c>
-      <c r="X7" s="3">
-        <v>2.15</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB7" s="4">
-        <v>0.00965481886534518</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>43655</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>43654</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>43676.875</v>
-      </c>
-      <c r="AF7" s="5">
-        <v>1.2884631614</v>
-      </c>
-      <c r="AG7" s="5">
-        <v>1.317105971</v>
+      <c r="Y9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB9" s="4">
+        <v>0.01356126080325369</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>43643</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>43642</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>43674.875</v>
+      </c>
+      <c r="AF9" s="5">
+        <v>1.1286320339</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>1.3148596538</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1270,7 +1520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1279,7 +1529,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1435,34 +1685,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3">
-        <v>70.426130949295</v>
+        <v>70.226654109458</v>
       </c>
       <c r="F2" s="3">
-        <v>1197.244226138015</v>
+        <v>1053.39981164187</v>
       </c>
       <c r="G2" s="3">
-        <v>517.2442261380149</v>
+        <v>228.39981164187</v>
       </c>
       <c r="H2" s="3">
-        <v>-0.3</v>
+        <v>-0.17</v>
       </c>
       <c r="I2" s="4">
-        <v>-0.00558</v>
+        <v>-0.00317</v>
       </c>
       <c r="J2" s="3">
-        <v>65348895200</v>
+        <v>65275565600</v>
       </c>
       <c r="K2">
-        <v>10.4</v>
+        <v>10.39</v>
       </c>
       <c r="L2" s="3">
         <v>60.6</v>
@@ -1471,49 +1721,49 @@
         <v>48.34</v>
       </c>
       <c r="N2" s="4">
-        <v>0.06361899999999999</v>
+        <v>0.06225100000000001</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P2" s="3">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="3">
-        <v>680</v>
+        <v>825</v>
       </c>
       <c r="R2" s="7">
         <v>43038</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W2" s="3">
-        <v>0.874564259404</v>
+        <v>0.8730668101232</v>
       </c>
       <c r="X2" s="3">
-        <v>1.74</v>
+        <v>26.1</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB2" s="4">
-        <v>0.01241817841780438</v>
+        <v>0.01243212881482868</v>
       </c>
       <c r="AC2" s="7">
         <v>43644</v>
@@ -1528,7 +1778,7 @@
         <v>1.2847054771</v>
       </c>
       <c r="AG2" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1536,34 +1786,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E3" s="3">
-        <v>23.780348306405</v>
+        <v>23.785811137242</v>
       </c>
       <c r="F3" s="3">
-        <v>356.705224596075</v>
+        <v>1427.14866823452</v>
       </c>
       <c r="G3" s="3">
-        <v>-1293.294775403925</v>
+        <v>227.1486682345201</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.335</v>
+        <v>-0.09</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.01822</v>
+        <v>-0.00495</v>
       </c>
       <c r="J3" s="3">
-        <v>35539281450</v>
+        <v>35608175100</v>
       </c>
       <c r="K3">
-        <v>8.640000000000001</v>
+        <v>8.66</v>
       </c>
       <c r="L3" s="3">
         <v>18.95</v>
@@ -1572,49 +1822,49 @@
         <v>13.33</v>
       </c>
       <c r="N3" s="4">
-        <v>0.265998</v>
+        <v>0.264603</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="3">
-        <v>1650</v>
+        <v>1200</v>
       </c>
       <c r="R3" s="7">
         <v>43039</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U3" t="s">
         <v>56</v>
       </c>
       <c r="V3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="W3" s="3">
-        <v>0.244981710606</v>
+        <v>0.2445638956068</v>
       </c>
       <c r="X3" s="3">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.0103018554417059</v>
+        <v>0.01028192371475953</v>
       </c>
       <c r="AC3" s="7">
         <v>43598</v>
@@ -1629,7 +1879,7 @@
         <v>1.2892249527</v>
       </c>
       <c r="AG3" s="5">
-        <v>1.317105971</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -1637,34 +1887,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D4" s="2">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="E4" s="3">
-        <v>24.46</v>
+        <v>25.29</v>
       </c>
       <c r="F4" s="3">
-        <v>24460</v>
+        <v>1264.5</v>
       </c>
       <c r="G4" s="3">
-        <v>-35540</v>
+        <v>264.5</v>
       </c>
       <c r="H4" s="3">
-        <v>-0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I4" s="4">
-        <v>-0.00731</v>
+        <v>0.00757</v>
       </c>
       <c r="J4" s="3">
-        <v>29219671400</v>
+        <v>30211181100</v>
       </c>
       <c r="K4">
-        <v>13.11</v>
+        <v>13.56</v>
       </c>
       <c r="L4" s="3">
         <v>36.8</v>
@@ -1673,49 +1923,49 @@
         <v>21.85</v>
       </c>
       <c r="N4" s="4">
-        <v>-0.011352</v>
+        <v>0.022121</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P4" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="3">
-        <v>60000</v>
+        <v>1000</v>
       </c>
       <c r="R4" s="7">
         <v>43040</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U4" t="s">
         <v>57</v>
       </c>
       <c r="V4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="W4" s="3">
         <v>0.281</v>
       </c>
       <c r="X4" s="3">
-        <v>0.5694264253828279</v>
+        <v>28.52015414087992</v>
       </c>
       <c r="Y4" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA4" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB4" s="4">
-        <v>0.01148814390842191</v>
+        <v>0.01111111111111111</v>
       </c>
       <c r="AC4" s="7">
         <v>43629</v>
@@ -1730,11 +1980,11 @@
         <v>1.2905614881</v>
       </c>
       <c r="AG4" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -1746,7 +1996,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1755,7 +2005,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -1911,34 +2161,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E2" s="3">
-        <v>44.09700512777999</v>
+        <v>43.903163840382</v>
       </c>
       <c r="F2" s="3">
-        <v>1014.23111793894</v>
+        <v>1756.12655361528</v>
       </c>
       <c r="G2" s="3">
-        <v>-595.7688820610601</v>
+        <v>156.12655361528</v>
       </c>
       <c r="H2" s="3">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I2" s="4">
-        <v>0.003</v>
+        <v>0.0018</v>
       </c>
       <c r="J2" s="3">
-        <v>67753810800</v>
+        <v>67571676900</v>
       </c>
       <c r="K2">
-        <v>21.45</v>
+        <v>21.39</v>
       </c>
       <c r="L2" s="3">
         <v>38.04</v>
@@ -1947,49 +2197,49 @@
         <v>28.82</v>
       </c>
       <c r="N2" s="4">
-        <v>0.059998</v>
+        <v>0.057215</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P2" s="3">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="Q2" s="3">
-        <v>1610</v>
+        <v>1600</v>
       </c>
       <c r="R2" s="7">
         <v>42676</v>
       </c>
       <c r="S2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="U2" t="s">
+        <v>58</v>
+      </c>
+      <c r="V2" t="s">
         <v>63</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" s="3">
+        <v>0.9703664245043999</v>
+      </c>
+      <c r="X2" s="3">
+        <v>59.04</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" t="s">
         <v>64</v>
       </c>
-      <c r="W2" s="3">
-        <v>0.9720307581929999</v>
-      </c>
-      <c r="X2" s="3">
-        <v>1.476</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>49</v>
-      </c>
       <c r="AB2" s="4">
-        <v>0.02204301075268817</v>
+        <v>0.02210242587601078</v>
       </c>
       <c r="AC2" s="7">
         <v>43599</v>
@@ -2004,7 +2254,7 @@
         <v>1.3375394322</v>
       </c>
       <c r="AG2" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -2012,34 +2262,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2">
-        <v>20000</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3">
-        <v>103.037894598155</v>
+        <v>103.453157560984</v>
       </c>
       <c r="F3" s="3">
-        <v>2060757.8919631</v>
+        <v>1551.79736341476</v>
       </c>
       <c r="G3" s="3">
-        <v>2052757.8919631</v>
+        <v>126.79736341476</v>
       </c>
       <c r="H3" s="3">
-        <v>-0.46</v>
+        <v>0.06</v>
       </c>
       <c r="I3" s="4">
-        <v>-0.00585</v>
+        <v>0.00076</v>
       </c>
       <c r="J3" s="3">
-        <v>34784969500</v>
+        <v>34985062000</v>
       </c>
       <c r="K3">
-        <v>9.050000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="L3" s="3">
         <v>96.98</v>
@@ -2048,49 +2298,49 @@
         <v>72.95999999999999</v>
       </c>
       <c r="N3" s="4">
-        <v>0.038338</v>
+        <v>0.044019</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="P3" s="3">
-        <v>0.4</v>
+        <v>95</v>
       </c>
       <c r="Q3" s="3">
-        <v>8000</v>
+        <v>1425</v>
       </c>
       <c r="R3" s="7">
         <v>41946</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="T3" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" t="s">
+        <v>55</v>
+      </c>
+      <c r="V3" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1.4029552506046</v>
+      </c>
+      <c r="X3" s="3">
         <v>42</v>
       </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="3">
-        <v>1.4053615433495</v>
-      </c>
-      <c r="X3" s="3">
-        <v>2.8</v>
-      </c>
       <c r="Y3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="Z3" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="AA3" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="AB3" s="4">
-        <v>0.01363926882270229</v>
+        <v>0.01356126080325369</v>
       </c>
       <c r="AC3" s="7">
         <v>43643</v>
@@ -2105,11 +2355,11 @@
         <v>1.1286320339</v>
       </c>
       <c r="AG3" s="5">
-        <v>1.3171148485</v>
+        <v>1.3148596538</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G7">
+  <conditionalFormatting sqref="G2:G9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -2121,7 +2371,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H7">
+  <conditionalFormatting sqref="H2:H9">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -2130,7 +2380,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2:I7">
+  <conditionalFormatting sqref="I2:I9">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
